--- a/result/verified/j30_Bimerge_BDD_paraFROST.xlsx
+++ b/result/verified/j30_Bimerge_BDD_paraFROST.xlsx
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U668" sqref="U668"/>
+      <selection activeCell="X683" sqref="X683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10307,7 +10307,7 @@
         <v>54</v>
       </c>
       <c r="F292" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G292">
         <v>14920.64</v>
